--- a/notasf1.xlsx
+++ b/notasf1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozuk\Desktop\kozukipanda\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D52FD7-9B51-471B-8913-FC7D4C177994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -5218,8 +5212,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5307,21 +5301,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5359,7 +5345,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5393,7 +5379,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5428,10 +5413,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5604,24 +5588,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" customWidth="1"/>
-    <col min="9" max="12" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1720</v>
       </c>
@@ -5656,7 +5638,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5682,7 +5664,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5708,7 +5690,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5734,7 +5716,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5769,7 +5751,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5804,7 +5786,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5830,7 +5812,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5865,7 +5847,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5900,7 +5882,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5926,7 +5908,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5961,7 +5943,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5996,7 +5978,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6031,7 +6013,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6066,7 +6048,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6101,7 +6083,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6127,7 +6109,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6162,7 +6144,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6197,7 +6179,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6223,7 +6205,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6249,7 +6231,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6284,7 +6266,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6319,7 +6301,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6354,7 +6336,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6389,7 +6371,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6424,7 +6406,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6459,7 +6441,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6485,7 +6467,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6511,7 +6493,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6546,7 +6528,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6581,7 +6563,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6607,7 +6589,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6633,7 +6615,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6659,7 +6641,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6694,7 +6676,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6720,7 +6702,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6746,7 +6728,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6772,7 +6754,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6807,7 +6789,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6842,7 +6824,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6877,7 +6859,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6903,7 +6885,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6929,7 +6911,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6964,7 +6946,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6990,7 +6972,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7025,7 +7007,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7051,7 +7033,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7086,7 +7068,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7121,7 +7103,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7156,7 +7138,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7182,7 +7164,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7208,7 +7190,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7243,7 +7225,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7278,7 +7260,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7313,7 +7295,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7348,7 +7330,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7374,7 +7356,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7409,7 +7391,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7435,7 +7417,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7461,7 +7443,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7487,7 +7469,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7513,7 +7495,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7539,7 +7521,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7565,7 +7547,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7600,7 +7582,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7635,7 +7617,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7661,7 +7643,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7696,7 +7678,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7722,7 +7704,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7757,7 +7739,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7783,7 +7765,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7809,7 +7791,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7844,7 +7826,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7870,7 +7852,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7905,7 +7887,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7940,7 +7922,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7966,7 +7948,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7992,7 +7974,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8027,7 +8009,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8062,7 +8044,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8097,7 +8079,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8132,7 +8114,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8167,7 +8149,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8193,7 +8175,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8228,7 +8210,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8263,7 +8245,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8289,7 +8271,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8315,7 +8297,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8350,7 +8332,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8385,7 +8367,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8411,7 +8393,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8437,7 +8419,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8472,7 +8454,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8498,7 +8480,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8533,7 +8515,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8568,7 +8550,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8594,7 +8576,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8620,7 +8602,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8655,7 +8637,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8690,7 +8672,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8716,7 +8698,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8742,7 +8724,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8777,7 +8759,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8812,7 +8794,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8847,7 +8829,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8873,7 +8855,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8908,7 +8890,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8943,7 +8925,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8978,7 +8960,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9004,7 +8986,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9039,7 +9021,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9074,7 +9056,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9109,7 +9091,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9144,7 +9126,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9170,7 +9152,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9196,7 +9178,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9222,7 +9204,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9257,7 +9239,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9292,7 +9274,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9327,7 +9309,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9362,7 +9344,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9388,7 +9370,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9414,7 +9396,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9449,7 +9431,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9475,7 +9457,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9501,7 +9483,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9536,7 +9518,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9571,7 +9553,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9606,7 +9588,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9641,7 +9623,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9676,7 +9658,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9702,7 +9684,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9737,7 +9719,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9772,7 +9754,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9807,7 +9789,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9842,7 +9824,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9868,7 +9850,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9903,7 +9885,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9929,7 +9911,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9964,7 +9946,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9999,7 +9981,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10025,7 +10007,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10051,7 +10033,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10077,7 +10059,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10103,7 +10085,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10138,7 +10120,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10173,7 +10155,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10208,7 +10190,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10243,7 +10225,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10278,7 +10260,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10313,7 +10295,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10339,7 +10321,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10374,7 +10356,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10400,7 +10382,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10435,7 +10417,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10461,7 +10443,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10496,7 +10478,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10522,7 +10504,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10548,7 +10530,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10574,7 +10556,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10609,7 +10591,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10644,7 +10626,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10670,7 +10652,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10696,7 +10678,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10722,7 +10704,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10757,7 +10739,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10792,7 +10774,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10827,7 +10809,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10862,7 +10844,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10888,7 +10870,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10914,7 +10896,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10949,7 +10931,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10975,7 +10957,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11010,7 +10992,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11036,7 +11018,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11071,7 +11053,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11106,7 +11088,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11141,7 +11123,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11167,7 +11149,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11193,7 +11175,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11228,7 +11210,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11254,7 +11236,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11280,7 +11262,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11306,7 +11288,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11341,7 +11323,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11367,7 +11349,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11393,7 +11375,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11419,7 +11401,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11454,7 +11436,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11480,7 +11462,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11506,7 +11488,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11541,7 +11523,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11576,7 +11558,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11611,7 +11593,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11637,7 +11619,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11672,7 +11654,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11707,7 +11689,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11733,7 +11715,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11768,7 +11750,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11803,7 +11785,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11838,7 +11820,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11873,7 +11855,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11899,7 +11881,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11934,7 +11916,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11969,7 +11951,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11995,7 +11977,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>205</v>
       </c>
@@ -12030,7 +12012,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>206</v>
       </c>
@@ -12065,7 +12047,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>207</v>
       </c>
@@ -12091,7 +12073,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12117,7 +12099,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12143,7 +12125,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12178,7 +12160,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11">
       <c r="A212">
         <v>211</v>
       </c>
@@ -12213,7 +12195,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11">
       <c r="A213">
         <v>212</v>
       </c>
@@ -12239,7 +12221,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12274,7 +12256,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12309,7 +12291,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12344,7 +12326,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12379,7 +12361,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12414,7 +12396,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12449,7 +12431,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12484,7 +12466,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12510,7 +12492,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12536,7 +12518,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12571,7 +12553,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12606,7 +12588,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12641,7 +12623,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12667,7 +12649,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12702,7 +12684,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12737,7 +12719,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12772,7 +12754,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12798,7 +12780,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12824,7 +12806,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12859,7 +12841,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12885,7 +12867,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12920,7 +12902,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12955,7 +12937,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12981,7 +12963,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11">
       <c r="A237">
         <v>236</v>
       </c>
@@ -13007,7 +12989,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11">
       <c r="A238">
         <v>237</v>
       </c>
@@ -13042,7 +13024,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11">
       <c r="A239">
         <v>238</v>
       </c>
@@ -13077,7 +13059,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11">
       <c r="A240">
         <v>239</v>
       </c>
@@ -13103,7 +13085,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11">
       <c r="A241">
         <v>240</v>
       </c>
@@ -13138,7 +13120,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11">
       <c r="A242">
         <v>241</v>
       </c>
@@ -13164,7 +13146,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13199,7 +13181,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13225,7 +13207,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13251,7 +13233,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13286,7 +13268,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13312,7 +13294,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13338,7 +13320,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13373,7 +13355,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13408,7 +13390,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13443,7 +13425,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13478,7 +13460,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13513,7 +13495,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13548,7 +13530,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13583,7 +13565,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13609,7 +13591,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13635,7 +13617,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13670,7 +13652,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13696,7 +13678,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13722,7 +13704,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13757,7 +13739,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13792,7 +13774,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13818,7 +13800,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13853,7 +13835,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13888,7 +13870,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13914,7 +13896,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13949,7 +13931,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13975,7 +13957,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11">
       <c r="A269">
         <v>268</v>
       </c>
@@ -14001,7 +13983,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11">
       <c r="A270">
         <v>269</v>
       </c>
@@ -14036,7 +14018,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11">
       <c r="A271">
         <v>270</v>
       </c>
@@ -14071,7 +14053,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11">
       <c r="A272">
         <v>271</v>
       </c>
@@ -14106,7 +14088,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11">
       <c r="A273">
         <v>272</v>
       </c>
@@ -14132,7 +14114,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14167,7 +14149,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>274</v>
       </c>
@@ -14202,7 +14184,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11">
       <c r="A276">
         <v>275</v>
       </c>
@@ -14228,7 +14210,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14263,7 +14245,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14298,7 +14280,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14333,7 +14315,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14359,7 +14341,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14394,7 +14376,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14420,7 +14402,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14455,7 +14437,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14490,7 +14472,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14516,7 +14498,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14551,7 +14533,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14586,7 +14568,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14612,7 +14594,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14638,7 +14620,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14664,7 +14646,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14690,7 +14672,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14716,7 +14698,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14742,7 +14724,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14768,7 +14750,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14794,7 +14776,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14820,7 +14802,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14855,7 +14837,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14881,7 +14863,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14907,7 +14889,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14933,7 +14915,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14959,7 +14941,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14985,7 +14967,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15020,7 +15002,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15055,7 +15037,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15081,7 +15063,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15116,7 +15098,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15151,7 +15133,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15186,7 +15168,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15221,7 +15203,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15256,7 +15238,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15282,7 +15264,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15317,7 +15299,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15343,7 +15325,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15369,7 +15351,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15395,7 +15377,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15430,7 +15412,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15465,7 +15447,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15491,7 +15473,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15526,7 +15508,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15552,7 +15534,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15578,7 +15560,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15604,7 +15586,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15639,7 +15621,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15674,7 +15656,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15700,7 +15682,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15735,7 +15717,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15761,7 +15743,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15787,7 +15769,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15813,7 +15795,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15839,7 +15821,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11">
       <c r="A331">
         <v>330</v>
       </c>
@@ -15874,7 +15856,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11">
       <c r="A332">
         <v>331</v>
       </c>
@@ -15909,7 +15891,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11">
       <c r="A333">
         <v>332</v>
       </c>
@@ -15944,7 +15926,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11">
       <c r="A334">
         <v>333</v>
       </c>
@@ -15970,7 +15952,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16005,7 +15987,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16040,7 +16022,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16075,7 +16057,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16110,7 +16092,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16136,7 +16118,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16171,7 +16153,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16206,7 +16188,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16232,7 +16214,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16258,7 +16240,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16284,7 +16266,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16319,7 +16301,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16345,7 +16327,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16380,7 +16362,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16415,7 +16397,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11">
       <c r="A349">
         <v>348</v>
       </c>
@@ -16441,7 +16423,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16476,7 +16458,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16502,7 +16484,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11">
       <c r="A352">
         <v>351</v>
       </c>
@@ -16537,7 +16519,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11">
       <c r="A353">
         <v>352</v>
       </c>
@@ -16563,7 +16545,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11">
       <c r="A354">
         <v>353</v>
       </c>
@@ -16589,7 +16571,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11">
       <c r="A355">
         <v>354</v>
       </c>
@@ -16624,7 +16606,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11">
       <c r="A356">
         <v>355</v>
       </c>
@@ -16650,7 +16632,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11">
       <c r="A357">
         <v>356</v>
       </c>
@@ -16685,7 +16667,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11">
       <c r="A358">
         <v>357</v>
       </c>
@@ -16711,7 +16693,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11">
       <c r="A359">
         <v>358</v>
       </c>
@@ -16746,7 +16728,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11">
       <c r="A360">
         <v>359</v>
       </c>
@@ -16781,7 +16763,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11">
       <c r="A361">
         <v>360</v>
       </c>
@@ -16816,7 +16798,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11">
       <c r="A362">
         <v>361</v>
       </c>
@@ -16851,7 +16833,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11">
       <c r="A363">
         <v>362</v>
       </c>
@@ -16886,7 +16868,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11">
       <c r="A364">
         <v>363</v>
       </c>
@@ -16921,7 +16903,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11">
       <c r="A365">
         <v>364</v>
       </c>
@@ -16956,7 +16938,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11">
       <c r="A366">
         <v>365</v>
       </c>
@@ -16991,7 +16973,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17026,7 +17008,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17061,7 +17043,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17087,7 +17069,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17113,7 +17095,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17139,7 +17121,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17174,7 +17156,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17200,7 +17182,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17235,7 +17217,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11">
       <c r="A375">
         <v>374</v>
       </c>
@@ -17270,7 +17252,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11">
       <c r="A376">
         <v>375</v>
       </c>
@@ -17296,7 +17278,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11">
       <c r="A377">
         <v>376</v>
       </c>
@@ -17331,7 +17313,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11">
       <c r="A378">
         <v>377</v>
       </c>
@@ -17366,7 +17348,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11">
       <c r="A379">
         <v>378</v>
       </c>
@@ -17392,7 +17374,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11">
       <c r="A380">
         <v>379</v>
       </c>
@@ -17418,7 +17400,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11">
       <c r="A381">
         <v>380</v>
       </c>
@@ -17444,7 +17426,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11">
       <c r="A382">
         <v>381</v>
       </c>
@@ -17479,7 +17461,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11">
       <c r="A383">
         <v>382</v>
       </c>
@@ -17514,7 +17496,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11">
       <c r="A384">
         <v>383</v>
       </c>
@@ -17540,7 +17522,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11">
       <c r="A385">
         <v>384</v>
       </c>
@@ -17575,7 +17557,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11">
       <c r="A386">
         <v>385</v>
       </c>
@@ -17610,7 +17592,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11">
       <c r="A387">
         <v>386</v>
       </c>
@@ -17645,7 +17627,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11">
       <c r="A388">
         <v>387</v>
       </c>
@@ -17671,7 +17653,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11">
       <c r="A389">
         <v>388</v>
       </c>
@@ -17706,7 +17688,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11">
       <c r="A390">
         <v>389</v>
       </c>
@@ -17732,7 +17714,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11">
       <c r="A391">
         <v>390</v>
       </c>
@@ -17767,7 +17749,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11">
       <c r="A392">
         <v>391</v>
       </c>
@@ -17802,7 +17784,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11">
       <c r="A393">
         <v>392</v>
       </c>
@@ -17828,7 +17810,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11">
       <c r="A394">
         <v>393</v>
       </c>
@@ -17854,7 +17836,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11">
       <c r="A395">
         <v>394</v>
       </c>
@@ -17889,7 +17871,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11">
       <c r="A396">
         <v>395</v>
       </c>
@@ -17915,7 +17897,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11">
       <c r="A397">
         <v>396</v>
       </c>
@@ -17941,7 +17923,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11">
       <c r="A398">
         <v>397</v>
       </c>
@@ -17967,7 +17949,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11">
       <c r="A399">
         <v>398</v>
       </c>
@@ -17993,7 +17975,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11">
       <c r="A400">
         <v>399</v>
       </c>
@@ -18028,7 +18010,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11">
       <c r="A401">
         <v>400</v>
       </c>
@@ -18063,7 +18045,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11">
       <c r="A402">
         <v>401</v>
       </c>
@@ -18089,7 +18071,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11">
       <c r="A403">
         <v>402</v>
       </c>
@@ -18115,7 +18097,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11">
       <c r="A404">
         <v>403</v>
       </c>
@@ -18150,7 +18132,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11">
       <c r="A405">
         <v>404</v>
       </c>
@@ -18185,7 +18167,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11">
       <c r="A406">
         <v>405</v>
       </c>
@@ -18220,7 +18202,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11">
       <c r="A407">
         <v>406</v>
       </c>
@@ -18246,7 +18228,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11">
       <c r="A408">
         <v>407</v>
       </c>
@@ -18281,7 +18263,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11">
       <c r="A409">
         <v>408</v>
       </c>
@@ -18316,7 +18298,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11">
       <c r="A410">
         <v>409</v>
       </c>
@@ -18351,7 +18333,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11">
       <c r="A411">
         <v>410</v>
       </c>
@@ -18377,7 +18359,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11">
       <c r="A412">
         <v>411</v>
       </c>
@@ -18403,7 +18385,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11">
       <c r="A413">
         <v>412</v>
       </c>
@@ -18438,7 +18420,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11">
       <c r="A414">
         <v>413</v>
       </c>
@@ -18464,7 +18446,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11">
       <c r="A415">
         <v>414</v>
       </c>
@@ -18499,7 +18481,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11">
       <c r="A416">
         <v>415</v>
       </c>
@@ -18534,7 +18516,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11">
       <c r="A417">
         <v>416</v>
       </c>
@@ -18569,7 +18551,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11">
       <c r="A418">
         <v>417</v>
       </c>
@@ -18604,7 +18586,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11">
       <c r="A419">
         <v>418</v>
       </c>
@@ -18639,7 +18621,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11">
       <c r="A420">
         <v>419</v>
       </c>
@@ -18665,7 +18647,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11">
       <c r="A421">
         <v>420</v>
       </c>
@@ -18700,7 +18682,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11">
       <c r="A422">
         <v>421</v>
       </c>
@@ -18735,7 +18717,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11">
       <c r="A423">
         <v>422</v>
       </c>
@@ -18770,7 +18752,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11">
       <c r="A424">
         <v>423</v>
       </c>
@@ -18796,7 +18778,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11">
       <c r="A425">
         <v>424</v>
       </c>
@@ -18831,7 +18813,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11">
       <c r="A426">
         <v>425</v>
       </c>
@@ -18857,7 +18839,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11">
       <c r="A427">
         <v>426</v>
       </c>
@@ -18883,7 +18865,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11">
       <c r="A428">
         <v>427</v>
       </c>
@@ -18909,7 +18891,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11">
       <c r="A429">
         <v>428</v>
       </c>
@@ -18935,7 +18917,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11">
       <c r="A430">
         <v>429</v>
       </c>
@@ -18961,7 +18943,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11">
       <c r="A431">
         <v>430</v>
       </c>
@@ -18987,7 +18969,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11">
       <c r="A432">
         <v>431</v>
       </c>
@@ -19013,7 +18995,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11">
       <c r="A433">
         <v>432</v>
       </c>
@@ -19039,7 +19021,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11">
       <c r="A434">
         <v>433</v>
       </c>
@@ -19074,7 +19056,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11">
       <c r="A435">
         <v>434</v>
       </c>
@@ -19109,7 +19091,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11">
       <c r="A436">
         <v>435</v>
       </c>
@@ -19144,7 +19126,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11">
       <c r="A437">
         <v>436</v>
       </c>
@@ -19179,7 +19161,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11">
       <c r="A438">
         <v>437</v>
       </c>
@@ -19214,7 +19196,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11">
       <c r="A439">
         <v>438</v>
       </c>
@@ -19249,7 +19231,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11">
       <c r="A440">
         <v>439</v>
       </c>
@@ -19284,7 +19266,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11">
       <c r="A441">
         <v>440</v>
       </c>
@@ -19310,7 +19292,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19336,7 +19318,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19362,7 +19344,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19388,7 +19370,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19423,7 +19405,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19449,7 +19431,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19484,7 +19466,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11">
       <c r="A448">
         <v>447</v>
       </c>
@@ -19519,7 +19501,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11">
       <c r="A449">
         <v>448</v>
       </c>
@@ -19554,7 +19536,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11">
       <c r="A450">
         <v>449</v>
       </c>
@@ -19589,7 +19571,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11">
       <c r="A451">
         <v>450</v>
       </c>
@@ -19624,7 +19606,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11">
       <c r="A452">
         <v>451</v>
       </c>
@@ -19659,7 +19641,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11">
       <c r="A453">
         <v>452</v>
       </c>
@@ -19694,7 +19676,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11">
       <c r="A454">
         <v>453</v>
       </c>
@@ -19720,7 +19702,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11">
       <c r="A455">
         <v>454</v>
       </c>
@@ -19755,7 +19737,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11">
       <c r="A456">
         <v>455</v>
       </c>
@@ -19781,7 +19763,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11">
       <c r="A457">
         <v>456</v>
       </c>
@@ -19816,7 +19798,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11">
       <c r="A458">
         <v>457</v>
       </c>
@@ -19851,7 +19833,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11">
       <c r="A459">
         <v>458</v>
       </c>
@@ -19877,7 +19859,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11">
       <c r="A460">
         <v>459</v>
       </c>
@@ -19903,7 +19885,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11">
       <c r="A461">
         <v>460</v>
       </c>
@@ -19938,7 +19920,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11">
       <c r="A462">
         <v>461</v>
       </c>
@@ -19964,7 +19946,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11">
       <c r="A463">
         <v>462</v>
       </c>
@@ -19999,7 +19981,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11">
       <c r="A464">
         <v>463</v>
       </c>
@@ -20025,7 +20007,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11">
       <c r="A465">
         <v>464</v>
       </c>
@@ -20060,7 +20042,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11">
       <c r="A466">
         <v>465</v>
       </c>
@@ -20095,7 +20077,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11">
       <c r="A467">
         <v>466</v>
       </c>
@@ -20121,7 +20103,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11">
       <c r="A468">
         <v>467</v>
       </c>
@@ -20147,7 +20129,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11">
       <c r="A469">
         <v>468</v>
       </c>
@@ -20173,7 +20155,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11">
       <c r="A470">
         <v>469</v>
       </c>
@@ -20199,7 +20181,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11">
       <c r="A471">
         <v>470</v>
       </c>
@@ -20234,7 +20216,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11">
       <c r="A472">
         <v>471</v>
       </c>
@@ -20260,7 +20242,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11">
       <c r="A473">
         <v>472</v>
       </c>
@@ -20295,7 +20277,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11">
       <c r="A474">
         <v>473</v>
       </c>
@@ -20330,7 +20312,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11">
       <c r="A475">
         <v>474</v>
       </c>
@@ -20365,7 +20347,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11">
       <c r="A476">
         <v>475</v>
       </c>
@@ -20400,7 +20382,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11">
       <c r="A477">
         <v>476</v>
       </c>
@@ -20426,7 +20408,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11">
       <c r="A478">
         <v>477</v>
       </c>
@@ -20452,7 +20434,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11">
       <c r="A479">
         <v>478</v>
       </c>
@@ -20478,7 +20460,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11">
       <c r="A480">
         <v>479</v>
       </c>
@@ -20504,7 +20486,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11">
       <c r="A481">
         <v>480</v>
       </c>
@@ -20539,7 +20521,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11">
       <c r="A482">
         <v>481</v>
       </c>
@@ -20565,7 +20547,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11">
       <c r="A483">
         <v>482</v>
       </c>
@@ -20591,7 +20573,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11">
       <c r="A484">
         <v>483</v>
       </c>
@@ -20617,7 +20599,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11">
       <c r="A485">
         <v>484</v>
       </c>
@@ -20652,7 +20634,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11">
       <c r="A486">
         <v>485</v>
       </c>
@@ -20687,7 +20669,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11">
       <c r="A487">
         <v>486</v>
       </c>
@@ -20722,7 +20704,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11">
       <c r="A488">
         <v>487</v>
       </c>
@@ -20748,7 +20730,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11">
       <c r="A489">
         <v>488</v>
       </c>
@@ -20783,7 +20765,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11">
       <c r="A490">
         <v>489</v>
       </c>
@@ -20809,7 +20791,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11">
       <c r="A491">
         <v>490</v>
       </c>
@@ -20835,7 +20817,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11">
       <c r="A492">
         <v>491</v>
       </c>
@@ -20861,7 +20843,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11">
       <c r="A493">
         <v>492</v>
       </c>
@@ -20896,7 +20878,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11">
       <c r="A494">
         <v>493</v>
       </c>
@@ -20931,7 +20913,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11">
       <c r="A495">
         <v>494</v>
       </c>
@@ -20966,7 +20948,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11">
       <c r="A496">
         <v>495</v>
       </c>
@@ -21001,7 +20983,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11">
       <c r="A497">
         <v>496</v>
       </c>
@@ -21027,7 +21009,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11">
       <c r="A498">
         <v>497</v>
       </c>
@@ -21062,7 +21044,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11">
       <c r="A499">
         <v>498</v>
       </c>
@@ -21097,7 +21079,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11">
       <c r="A500">
         <v>499</v>
       </c>
@@ -21123,7 +21105,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11">
       <c r="A501">
         <v>500</v>
       </c>
@@ -21158,7 +21140,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11">
       <c r="A502">
         <v>501</v>
       </c>
@@ -21193,7 +21175,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11">
       <c r="A503">
         <v>502</v>
       </c>
@@ -21219,7 +21201,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11">
       <c r="A504">
         <v>503</v>
       </c>
@@ -21245,7 +21227,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11">
       <c r="A505">
         <v>504</v>
       </c>
@@ -21280,7 +21262,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11">
       <c r="A506">
         <v>505</v>
       </c>
@@ -21306,7 +21288,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11">
       <c r="A507">
         <v>506</v>
       </c>
@@ -21341,7 +21323,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11">
       <c r="A508">
         <v>507</v>
       </c>
@@ -21376,7 +21358,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11">
       <c r="A509">
         <v>508</v>
       </c>
@@ -21411,7 +21393,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11">
       <c r="A510">
         <v>509</v>
       </c>
@@ -21437,7 +21419,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11">
       <c r="A511">
         <v>510</v>
       </c>
@@ -21472,7 +21454,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11">
       <c r="A512">
         <v>511</v>
       </c>
@@ -21507,7 +21489,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11">
       <c r="A513">
         <v>512</v>
       </c>
@@ -21533,7 +21515,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11">
       <c r="A514">
         <v>513</v>
       </c>
@@ -21568,7 +21550,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11">
       <c r="A515">
         <v>514</v>
       </c>
@@ -21594,7 +21576,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11">
       <c r="A516">
         <v>515</v>
       </c>
@@ -21629,7 +21611,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11">
       <c r="A517">
         <v>516</v>
       </c>
@@ -21655,7 +21637,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11">
       <c r="A518">
         <v>517</v>
       </c>
@@ -21681,7 +21663,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11">
       <c r="A519">
         <v>518</v>
       </c>
@@ -21707,7 +21689,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11">
       <c r="A520">
         <v>519</v>
       </c>
@@ -21733,7 +21715,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11">
       <c r="A521">
         <v>520</v>
       </c>
@@ -21759,7 +21741,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11">
       <c r="A522">
         <v>521</v>
       </c>
@@ -21785,7 +21767,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11">
       <c r="A523">
         <v>522</v>
       </c>
@@ -21811,7 +21793,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11">
       <c r="A524">
         <v>523</v>
       </c>
@@ -21846,7 +21828,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11">
       <c r="A525">
         <v>524</v>
       </c>
@@ -21872,7 +21854,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11">
       <c r="A526">
         <v>525</v>
       </c>
@@ -21907,7 +21889,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11">
       <c r="A527">
         <v>526</v>
       </c>
@@ -21933,7 +21915,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11">
       <c r="A528">
         <v>527</v>
       </c>
@@ -21968,7 +21950,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11">
       <c r="A529">
         <v>528</v>
       </c>
@@ -22003,7 +21985,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11">
       <c r="A530">
         <v>529</v>
       </c>
@@ -22029,7 +22011,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11">
       <c r="A531">
         <v>530</v>
       </c>
@@ -22064,7 +22046,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11">
       <c r="A532">
         <v>531</v>
       </c>
@@ -22090,7 +22072,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11">
       <c r="A533">
         <v>532</v>
       </c>
@@ -22125,7 +22107,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11">
       <c r="A534">
         <v>533</v>
       </c>
@@ -22151,7 +22133,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11">
       <c r="A535">
         <v>534</v>
       </c>
@@ -22186,7 +22168,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11">
       <c r="A536">
         <v>535</v>
       </c>
@@ -22212,7 +22194,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11">
       <c r="A537">
         <v>536</v>
       </c>
@@ -22238,7 +22220,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11">
       <c r="A538">
         <v>537</v>
       </c>
@@ -22273,7 +22255,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11">
       <c r="A539">
         <v>538</v>
       </c>
@@ -22299,7 +22281,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11">
       <c r="A540">
         <v>539</v>
       </c>
@@ -22325,7 +22307,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11">
       <c r="A541">
         <v>540</v>
       </c>
@@ -22360,7 +22342,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11">
       <c r="A542">
         <v>541</v>
       </c>
@@ -22395,7 +22377,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11">
       <c r="A543">
         <v>542</v>
       </c>
@@ -22421,7 +22403,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11">
       <c r="A544">
         <v>543</v>
       </c>
@@ -22447,7 +22429,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11">
       <c r="A545">
         <v>544</v>
       </c>
@@ -22473,7 +22455,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11">
       <c r="A546">
         <v>545</v>
       </c>
@@ -22508,7 +22490,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11">
       <c r="A547">
         <v>546</v>
       </c>
@@ -22534,7 +22516,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11">
       <c r="A548">
         <v>547</v>
       </c>
@@ -22560,7 +22542,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11">
       <c r="A549">
         <v>548</v>
       </c>
@@ -22595,7 +22577,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11">
       <c r="A550">
         <v>549</v>
       </c>
@@ -22630,7 +22612,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11">
       <c r="A551">
         <v>550</v>
       </c>
@@ -22656,7 +22638,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11">
       <c r="A552">
         <v>551</v>
       </c>
@@ -22691,7 +22673,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11">
       <c r="A553">
         <v>552</v>
       </c>
@@ -22717,7 +22699,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11">
       <c r="A554">
         <v>553</v>
       </c>
@@ -22752,7 +22734,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11">
       <c r="A555">
         <v>554</v>
       </c>
@@ -22778,7 +22760,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11">
       <c r="A556">
         <v>555</v>
       </c>
@@ -22804,7 +22786,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11">
       <c r="A557">
         <v>556</v>
       </c>
@@ -22830,7 +22812,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11">
       <c r="A558">
         <v>557</v>
       </c>
@@ -22856,7 +22838,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11">
       <c r="A559">
         <v>558</v>
       </c>
@@ -22882,7 +22864,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11">
       <c r="A560">
         <v>559</v>
       </c>
@@ -22908,7 +22890,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11">
       <c r="A561">
         <v>560</v>
       </c>
@@ -22943,7 +22925,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11">
       <c r="A562">
         <v>561</v>
       </c>
@@ -22978,7 +22960,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11">
       <c r="A563">
         <v>562</v>
       </c>
@@ -23013,7 +22995,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11">
       <c r="A564">
         <v>563</v>
       </c>
@@ -23039,7 +23021,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11">
       <c r="A565">
         <v>564</v>
       </c>
@@ -23074,7 +23056,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11">
       <c r="A566">
         <v>565</v>
       </c>
@@ -23109,7 +23091,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11">
       <c r="A567">
         <v>566</v>
       </c>
@@ -23144,7 +23126,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11">
       <c r="A568">
         <v>567</v>
       </c>
@@ -23179,7 +23161,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11">
       <c r="A569">
         <v>568</v>
       </c>
@@ -23205,7 +23187,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11">
       <c r="A570">
         <v>569</v>
       </c>
@@ -23240,7 +23222,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11">
       <c r="A571">
         <v>570</v>
       </c>
@@ -23275,7 +23257,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11">
       <c r="A572">
         <v>571</v>
       </c>
@@ -23310,7 +23292,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11">
       <c r="A573">
         <v>572</v>
       </c>
@@ -23336,7 +23318,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11">
       <c r="A574">
         <v>573</v>
       </c>
@@ -23362,7 +23344,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11">
       <c r="A575">
         <v>574</v>
       </c>
@@ -23397,7 +23379,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11">
       <c r="A576">
         <v>575</v>
       </c>
@@ -23432,7 +23414,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11">
       <c r="A577">
         <v>576</v>
       </c>
@@ -23467,7 +23449,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11">
       <c r="A578">
         <v>577</v>
       </c>
@@ -23502,7 +23484,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11">
       <c r="A579">
         <v>578</v>
       </c>
@@ -23528,7 +23510,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11">
       <c r="A580">
         <v>579</v>
       </c>
@@ -23554,7 +23536,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11">
       <c r="A581">
         <v>580</v>
       </c>
@@ -23580,7 +23562,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11">
       <c r="A582">
         <v>581</v>
       </c>
@@ -23606,7 +23588,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11">
       <c r="A583">
         <v>582</v>
       </c>
@@ -23641,7 +23623,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11">
       <c r="A584">
         <v>583</v>
       </c>
@@ -23676,7 +23658,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11">
       <c r="A585">
         <v>584</v>
       </c>
@@ -23702,7 +23684,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11">
       <c r="A586">
         <v>585</v>
       </c>
@@ -23728,7 +23710,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11">
       <c r="A587">
         <v>586</v>
       </c>
@@ -23763,7 +23745,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11">
       <c r="A588">
         <v>587</v>
       </c>
@@ -23789,7 +23771,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11">
       <c r="A589">
         <v>588</v>
       </c>
@@ -23815,7 +23797,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11">
       <c r="A590">
         <v>589</v>
       </c>
@@ -23841,7 +23823,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11">
       <c r="A591">
         <v>590</v>
       </c>
@@ -23867,7 +23849,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11">
       <c r="A592">
         <v>591</v>
       </c>
@@ -23902,7 +23884,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11">
       <c r="A593">
         <v>592</v>
       </c>
@@ -23937,7 +23919,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11">
       <c r="A594">
         <v>593</v>
       </c>
@@ -23972,7 +23954,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11">
       <c r="A595">
         <v>594</v>
       </c>
@@ -23998,7 +23980,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11">
       <c r="A596">
         <v>595</v>
       </c>
@@ -24033,7 +24015,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11">
       <c r="A597">
         <v>596</v>
       </c>
@@ -24059,7 +24041,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11">
       <c r="A598">
         <v>597</v>
       </c>
@@ -24094,7 +24076,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11">
       <c r="A599">
         <v>598</v>
       </c>
@@ -24120,7 +24102,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11">
       <c r="A600">
         <v>599</v>
       </c>
@@ -24155,7 +24137,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11">
       <c r="A601">
         <v>600</v>
       </c>
@@ -24190,7 +24172,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11">
       <c r="A602">
         <v>601</v>
       </c>
@@ -24225,7 +24207,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11">
       <c r="A603">
         <v>602</v>
       </c>
@@ -24251,7 +24233,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11">
       <c r="A604">
         <v>603</v>
       </c>
@@ -24277,7 +24259,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11">
       <c r="A605">
         <v>604</v>
       </c>
@@ -24303,7 +24285,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11">
       <c r="A606">
         <v>605</v>
       </c>
@@ -24338,7 +24320,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11">
       <c r="A607">
         <v>606</v>
       </c>
@@ -24364,7 +24346,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11">
       <c r="A608">
         <v>607</v>
       </c>
@@ -24390,7 +24372,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11">
       <c r="A609">
         <v>608</v>
       </c>
@@ -24416,7 +24398,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11">
       <c r="A610">
         <v>609</v>
       </c>
@@ -24442,7 +24424,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11">
       <c r="A611">
         <v>610</v>
       </c>
@@ -24468,7 +24450,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11">
       <c r="A612">
         <v>611</v>
       </c>
@@ -24494,7 +24476,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11">
       <c r="A613">
         <v>612</v>
       </c>
@@ -24529,7 +24511,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11">
       <c r="A614">
         <v>613</v>
       </c>
@@ -24555,7 +24537,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11">
       <c r="A615">
         <v>614</v>
       </c>
@@ -24581,7 +24563,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11">
       <c r="A616">
         <v>615</v>
       </c>
@@ -24616,7 +24598,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11">
       <c r="A617">
         <v>616</v>
       </c>
@@ -24651,7 +24633,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11">
       <c r="A618">
         <v>617</v>
       </c>
@@ -24686,7 +24668,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11">
       <c r="A619">
         <v>618</v>
       </c>
@@ -24712,7 +24694,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11">
       <c r="A620">
         <v>619</v>
       </c>
@@ -24738,7 +24720,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11">
       <c r="A621">
         <v>620</v>
       </c>
@@ -24773,7 +24755,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11">
       <c r="A622">
         <v>621</v>
       </c>
@@ -24799,7 +24781,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11">
       <c r="A623">
         <v>622</v>
       </c>
@@ -24825,7 +24807,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11">
       <c r="A624">
         <v>623</v>
       </c>
@@ -24860,7 +24842,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11">
       <c r="A625">
         <v>624</v>
       </c>
@@ -24886,7 +24868,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11">
       <c r="A626">
         <v>625</v>
       </c>
@@ -24912,7 +24894,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11">
       <c r="A627">
         <v>626</v>
       </c>
@@ -24947,7 +24929,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11">
       <c r="A628">
         <v>627</v>
       </c>
@@ -24982,7 +24964,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11">
       <c r="A629">
         <v>628</v>
       </c>
@@ -25008,7 +24990,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11">
       <c r="A630">
         <v>629</v>
       </c>
@@ -25043,7 +25025,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11">
       <c r="A631">
         <v>630</v>
       </c>
@@ -25069,7 +25051,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11">
       <c r="A632">
         <v>631</v>
       </c>
@@ -25095,7 +25077,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11">
       <c r="A633">
         <v>632</v>
       </c>
@@ -25121,7 +25103,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11">
       <c r="A634">
         <v>633</v>
       </c>
@@ -25156,7 +25138,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11">
       <c r="A635">
         <v>634</v>
       </c>
@@ -25182,7 +25164,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11">
       <c r="A636">
         <v>635</v>
       </c>
@@ -25208,7 +25190,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11">
       <c r="A637">
         <v>636</v>
       </c>
@@ -25243,7 +25225,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11">
       <c r="A638">
         <v>637</v>
       </c>
@@ -25269,7 +25251,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11">
       <c r="A639">
         <v>638</v>
       </c>
@@ -25295,7 +25277,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11">
       <c r="A640">
         <v>639</v>
       </c>
@@ -25330,7 +25312,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11">
       <c r="A641">
         <v>640</v>
       </c>
@@ -25356,7 +25338,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11">
       <c r="A642">
         <v>641</v>
       </c>
@@ -25391,7 +25373,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11">
       <c r="A643">
         <v>642</v>
       </c>
@@ -25417,7 +25399,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11">
       <c r="A644">
         <v>643</v>
       </c>
@@ -25443,7 +25425,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11">
       <c r="A645">
         <v>644</v>
       </c>
@@ -25469,7 +25451,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11">
       <c r="A646">
         <v>645</v>
       </c>
@@ -25504,7 +25486,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11">
       <c r="A647">
         <v>646</v>
       </c>
@@ -25530,7 +25512,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11">
       <c r="A648">
         <v>647</v>
       </c>
@@ -25565,7 +25547,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11">
       <c r="A649">
         <v>648</v>
       </c>
@@ -25600,7 +25582,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11">
       <c r="A650">
         <v>649</v>
       </c>
@@ -25626,7 +25608,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11">
       <c r="A651">
         <v>650</v>
       </c>
@@ -25652,7 +25634,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11">
       <c r="A652">
         <v>651</v>
       </c>
@@ -25678,7 +25660,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11">
       <c r="A653">
         <v>652</v>
       </c>
@@ -25713,7 +25695,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11">
       <c r="A654">
         <v>653</v>
       </c>
@@ -25748,7 +25730,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11">
       <c r="A655">
         <v>654</v>
       </c>
@@ -25783,7 +25765,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11">
       <c r="A656">
         <v>655</v>
       </c>
@@ -25809,7 +25791,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11">
       <c r="A657">
         <v>656</v>
       </c>
@@ -25835,7 +25817,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11">
       <c r="A658">
         <v>657</v>
       </c>
@@ -25870,7 +25852,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11">
       <c r="A659">
         <v>658</v>
       </c>
@@ -25905,7 +25887,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11">
       <c r="A660">
         <v>659</v>
       </c>
@@ -25931,7 +25913,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11">
       <c r="A661">
         <v>660</v>
       </c>
@@ -25957,7 +25939,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11">
       <c r="A662">
         <v>661</v>
       </c>
@@ -25983,7 +25965,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11">
       <c r="A663">
         <v>662</v>
       </c>
@@ -26009,7 +25991,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11">
       <c r="A664">
         <v>663</v>
       </c>
@@ -26044,7 +26026,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11">
       <c r="A665">
         <v>664</v>
       </c>
@@ -26070,7 +26052,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11">
       <c r="A666">
         <v>665</v>
       </c>
@@ -26096,7 +26078,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11">
       <c r="A667">
         <v>666</v>
       </c>
@@ -26122,7 +26104,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11">
       <c r="A668">
         <v>667</v>
       </c>
@@ -26148,7 +26130,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11">
       <c r="A669">
         <v>668</v>
       </c>
@@ -26183,7 +26165,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11">
       <c r="A670">
         <v>669</v>
       </c>
@@ -26218,7 +26200,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11">
       <c r="A671">
         <v>670</v>
       </c>
@@ -26253,7 +26235,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11">
       <c r="A672">
         <v>671</v>
       </c>
@@ -26279,7 +26261,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11">
       <c r="A673">
         <v>672</v>
       </c>
@@ -26305,7 +26287,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11">
       <c r="A674">
         <v>673</v>
       </c>
@@ -26331,7 +26313,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11">
       <c r="A675">
         <v>674</v>
       </c>
@@ -26357,7 +26339,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11">
       <c r="A676">
         <v>675</v>
       </c>
@@ -26383,7 +26365,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11">
       <c r="A677">
         <v>676</v>
       </c>
@@ -26409,7 +26391,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11">
       <c r="A678">
         <v>677</v>
       </c>
@@ -26435,7 +26417,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11">
       <c r="A679">
         <v>678</v>
       </c>
@@ -26470,7 +26452,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11">
       <c r="A680">
         <v>679</v>
       </c>
@@ -26505,7 +26487,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11">
       <c r="A681">
         <v>680</v>
       </c>
@@ -26540,7 +26522,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11">
       <c r="A682">
         <v>681</v>
       </c>
@@ -26575,7 +26557,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11">
       <c r="A683">
         <v>682</v>
       </c>
@@ -26610,7 +26592,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11">
       <c r="A684">
         <v>683</v>
       </c>
@@ -26645,7 +26627,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11">
       <c r="A685">
         <v>684</v>
       </c>
@@ -26680,7 +26662,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11">
       <c r="A686">
         <v>685</v>
       </c>
@@ -26715,7 +26697,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11">
       <c r="A687">
         <v>686</v>
       </c>
@@ -26741,7 +26723,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11">
       <c r="A688">
         <v>687</v>
       </c>
@@ -26767,7 +26749,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11">
       <c r="A689">
         <v>688</v>
       </c>
@@ -26802,7 +26784,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11">
       <c r="A690">
         <v>689</v>
       </c>
@@ -26828,7 +26810,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11">
       <c r="A691">
         <v>690</v>
       </c>
@@ -26854,7 +26836,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11">
       <c r="A692">
         <v>691</v>
       </c>
@@ -26880,7 +26862,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11">
       <c r="A693">
         <v>692</v>
       </c>
@@ -26915,7 +26897,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11">
       <c r="A694">
         <v>693</v>
       </c>
@@ -26941,7 +26923,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11">
       <c r="A695">
         <v>694</v>
       </c>
@@ -26976,7 +26958,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11">
       <c r="A696">
         <v>695</v>
       </c>
@@ -27002,7 +26984,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11">
       <c r="A697">
         <v>696</v>
       </c>
@@ -27028,7 +27010,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11">
       <c r="A698">
         <v>697</v>
       </c>
@@ -27063,7 +27045,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11">
       <c r="A699">
         <v>698</v>
       </c>
@@ -27089,7 +27071,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11">
       <c r="A700">
         <v>699</v>
       </c>
@@ -27124,7 +27106,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11">
       <c r="A701">
         <v>700</v>
       </c>
@@ -27150,7 +27132,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11">
       <c r="A702">
         <v>701</v>
       </c>
@@ -27185,7 +27167,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11">
       <c r="A703">
         <v>702</v>
       </c>
@@ -27220,7 +27202,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11">
       <c r="A704">
         <v>703</v>
       </c>
@@ -27255,7 +27237,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11">
       <c r="A705">
         <v>704</v>
       </c>
@@ -27290,7 +27272,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11">
       <c r="A706">
         <v>705</v>
       </c>
@@ -27325,7 +27307,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11">
       <c r="A707">
         <v>706</v>
       </c>
@@ -27360,7 +27342,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11">
       <c r="A708">
         <v>707</v>
       </c>
@@ -27386,7 +27368,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11">
       <c r="A709">
         <v>708</v>
       </c>
@@ -27421,7 +27403,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11">
       <c r="A710">
         <v>709</v>
       </c>
@@ -27456,7 +27438,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11">
       <c r="A711">
         <v>710</v>
       </c>
@@ -27482,7 +27464,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11">
       <c r="A712">
         <v>711</v>
       </c>
@@ -27517,7 +27499,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11">
       <c r="A713">
         <v>712</v>
       </c>
@@ -27543,7 +27525,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11">
       <c r="A714">
         <v>713</v>
       </c>
@@ -27578,7 +27560,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11">
       <c r="A715">
         <v>714</v>
       </c>
@@ -27604,7 +27586,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11">
       <c r="A716">
         <v>715</v>
       </c>
@@ -27630,7 +27612,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11">
       <c r="A717">
         <v>716</v>
       </c>
@@ -27665,7 +27647,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11">
       <c r="A718">
         <v>717</v>
       </c>
@@ -27691,7 +27673,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11">
       <c r="A719">
         <v>718</v>
       </c>
@@ -27726,7 +27708,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11">
       <c r="A720">
         <v>719</v>
       </c>
@@ -27761,7 +27743,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11">
       <c r="A721">
         <v>720</v>
       </c>
@@ -27796,7 +27778,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11">
       <c r="A722">
         <v>721</v>
       </c>
@@ -27822,7 +27804,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11">
       <c r="A723">
         <v>722</v>
       </c>
@@ -27857,7 +27839,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11">
       <c r="A724">
         <v>723</v>
       </c>
@@ -27892,7 +27874,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11">
       <c r="A725">
         <v>724</v>
       </c>
@@ -27927,7 +27909,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11">
       <c r="A726">
         <v>725</v>
       </c>
@@ -27962,7 +27944,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11">
       <c r="A727">
         <v>726</v>
       </c>
@@ -27997,7 +27979,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11">
       <c r="A728">
         <v>727</v>
       </c>
@@ -28023,7 +28005,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11">
       <c r="A729">
         <v>728</v>
       </c>
@@ -28058,7 +28040,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11">
       <c r="A730">
         <v>729</v>
       </c>
@@ -28084,7 +28066,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11">
       <c r="A731">
         <v>730</v>
       </c>
@@ -28119,7 +28101,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11">
       <c r="A732">
         <v>731</v>
       </c>
@@ -28154,7 +28136,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11">
       <c r="A733">
         <v>732</v>
       </c>
@@ -28180,7 +28162,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11">
       <c r="A734">
         <v>733</v>
       </c>
@@ -28206,7 +28188,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11">
       <c r="A735">
         <v>734</v>
       </c>
@@ -28241,7 +28223,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11">
       <c r="A736">
         <v>735</v>
       </c>
@@ -28267,7 +28249,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11">
       <c r="A737">
         <v>736</v>
       </c>
@@ -28293,7 +28275,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11">
       <c r="A738">
         <v>737</v>
       </c>
@@ -28328,7 +28310,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11">
       <c r="A739">
         <v>738</v>
       </c>
@@ -28354,7 +28336,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11">
       <c r="A740">
         <v>739</v>
       </c>
@@ -28389,7 +28371,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11">
       <c r="A741">
         <v>740</v>
       </c>
@@ -28415,7 +28397,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11">
       <c r="A742">
         <v>741</v>
       </c>
@@ -28441,7 +28423,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11">
       <c r="A743">
         <v>742</v>
       </c>
@@ -28467,7 +28449,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11">
       <c r="A744">
         <v>743</v>
       </c>
@@ -28502,7 +28484,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11">
       <c r="A745">
         <v>744</v>
       </c>
@@ -28537,7 +28519,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11">
       <c r="A746">
         <v>745</v>
       </c>
@@ -28572,7 +28554,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11">
       <c r="A747">
         <v>746</v>
       </c>
@@ -28598,7 +28580,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11">
       <c r="A748">
         <v>747</v>
       </c>
@@ -28624,7 +28606,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11">
       <c r="A749">
         <v>748</v>
       </c>
@@ -28650,7 +28632,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11">
       <c r="A750">
         <v>749</v>
       </c>
@@ -28676,7 +28658,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11">
       <c r="A751">
         <v>750</v>
       </c>
@@ -28702,7 +28684,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11">
       <c r="A752">
         <v>751</v>
       </c>
@@ -28737,7 +28719,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11">
       <c r="A753">
         <v>752</v>
       </c>
@@ -28772,7 +28754,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11">
       <c r="A754">
         <v>753</v>
       </c>
@@ -28807,7 +28789,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11">
       <c r="A755">
         <v>754</v>
       </c>
@@ -28833,7 +28815,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11">
       <c r="A756">
         <v>755</v>
       </c>
@@ -28859,7 +28841,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11">
       <c r="A757">
         <v>756</v>
       </c>
@@ -28885,7 +28867,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11">
       <c r="A758">
         <v>757</v>
       </c>
@@ -28920,7 +28902,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11">
       <c r="A759">
         <v>758</v>
       </c>
@@ -28955,7 +28937,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11">
       <c r="A760">
         <v>759</v>
       </c>
@@ -28981,7 +28963,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11">
       <c r="A761">
         <v>760</v>
       </c>
@@ -29016,7 +28998,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11">
       <c r="A762">
         <v>761</v>
       </c>
@@ -29051,7 +29033,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11">
       <c r="A763">
         <v>762</v>
       </c>
@@ -29086,7 +29068,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11">
       <c r="A764">
         <v>763</v>
       </c>
@@ -29121,7 +29103,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11">
       <c r="A765">
         <v>764</v>
       </c>
@@ -29156,7 +29138,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11">
       <c r="A766">
         <v>765</v>
       </c>
@@ -29191,7 +29173,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11">
       <c r="A767">
         <v>766</v>
       </c>
@@ -29226,7 +29208,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11">
       <c r="A768">
         <v>767</v>
       </c>
@@ -29261,7 +29243,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11">
       <c r="A769">
         <v>768</v>
       </c>
@@ -29296,7 +29278,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11">
       <c r="A770">
         <v>769</v>
       </c>
@@ -29331,7 +29313,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11">
       <c r="A771">
         <v>770</v>
       </c>
@@ -29366,7 +29348,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11">
       <c r="A772">
         <v>771</v>
       </c>
@@ -29401,7 +29383,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11">
       <c r="A773">
         <v>772</v>
       </c>
@@ -29427,7 +29409,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11">
       <c r="A774">
         <v>773</v>
       </c>
@@ -29462,7 +29444,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11">
       <c r="A775">
         <v>774</v>
       </c>
@@ -29488,7 +29470,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11">
       <c r="A776">
         <v>775</v>
       </c>
@@ -29514,7 +29496,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11">
       <c r="A777">
         <v>776</v>
       </c>
@@ -29549,7 +29531,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11">
       <c r="A778">
         <v>777</v>
       </c>
@@ -29584,7 +29566,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11">
       <c r="A779">
         <v>778</v>
       </c>
@@ -29610,7 +29592,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11">
       <c r="A780">
         <v>779</v>
       </c>
@@ -29636,7 +29618,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11">
       <c r="A781">
         <v>780</v>
       </c>
@@ -29671,7 +29653,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11">
       <c r="A782">
         <v>781</v>
       </c>
@@ -29697,7 +29679,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11">
       <c r="A783">
         <v>782</v>
       </c>
@@ -29723,7 +29705,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11">
       <c r="A784">
         <v>783</v>
       </c>
@@ -29758,7 +29740,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11">
       <c r="A785">
         <v>784</v>
       </c>
@@ -29784,7 +29766,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11">
       <c r="A786">
         <v>785</v>
       </c>
@@ -29810,7 +29792,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11">
       <c r="A787">
         <v>786</v>
       </c>
@@ -29845,7 +29827,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11">
       <c r="A788">
         <v>787</v>
       </c>
@@ -29871,7 +29853,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11">
       <c r="A789">
         <v>788</v>
       </c>
@@ -29906,7 +29888,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11">
       <c r="A790">
         <v>789</v>
       </c>
@@ -29932,7 +29914,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11">
       <c r="A791">
         <v>790</v>
       </c>
@@ -29967,7 +29949,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11">
       <c r="A792">
         <v>791</v>
       </c>
@@ -29993,7 +29975,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11">
       <c r="A793">
         <v>792</v>
       </c>
@@ -30028,7 +30010,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11">
       <c r="A794">
         <v>793</v>
       </c>
@@ -30063,7 +30045,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11">
       <c r="A795">
         <v>794</v>
       </c>
@@ -30098,7 +30080,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11">
       <c r="A796">
         <v>795</v>
       </c>
@@ -30133,7 +30115,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11">
       <c r="A797">
         <v>796</v>
       </c>
@@ -30159,7 +30141,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11">
       <c r="A798">
         <v>797</v>
       </c>
@@ -30185,7 +30167,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11">
       <c r="A799">
         <v>798</v>
       </c>
@@ -30211,7 +30193,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11">
       <c r="A800">
         <v>799</v>
       </c>
@@ -30237,7 +30219,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11">
       <c r="A801">
         <v>800</v>
       </c>
@@ -30263,7 +30245,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11">
       <c r="A802">
         <v>801</v>
       </c>
@@ -30298,7 +30280,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11">
       <c r="A803">
         <v>802</v>
       </c>
@@ -30324,7 +30306,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11">
       <c r="A804">
         <v>803</v>
       </c>
@@ -30359,7 +30341,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11">
       <c r="A805">
         <v>804</v>
       </c>
@@ -30394,7 +30376,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11">
       <c r="A806">
         <v>805</v>
       </c>
@@ -30429,7 +30411,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11">
       <c r="A807">
         <v>806</v>
       </c>
@@ -30455,7 +30437,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11">
       <c r="A808">
         <v>807</v>
       </c>
@@ -30481,7 +30463,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11">
       <c r="A809">
         <v>808</v>
       </c>
@@ -30507,7 +30489,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11">
       <c r="A810">
         <v>809</v>
       </c>
@@ -30542,7 +30524,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11">
       <c r="A811">
         <v>810</v>
       </c>
@@ -30568,7 +30550,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11">
       <c r="A812">
         <v>811</v>
       </c>
@@ -30594,7 +30576,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11">
       <c r="A813">
         <v>812</v>
       </c>
@@ -30629,7 +30611,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11">
       <c r="A814">
         <v>813</v>
       </c>
@@ -30664,7 +30646,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11">
       <c r="A815">
         <v>814</v>
       </c>
@@ -30690,7 +30672,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11">
       <c r="A816">
         <v>815</v>
       </c>
@@ -30716,7 +30698,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11">
       <c r="A817">
         <v>816</v>
       </c>
